--- a/excel/AI Agents for Writing and Content Creation.xlsx
+++ b/excel/AI Agents for Writing and Content Creation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49afe6381fd2a7e4/Desktop/DigeonTech/Newsletter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0cbccc594207fa0/Desktop/digeon/digeon/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{28A098A1-0BAA-4606-9972-E3ABA25F5D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9155474-7DAA-42AF-BAD0-D53E34C07CE8}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{28A098A1-0BAA-4606-9972-E3ABA25F5D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D08D6645-3551-482F-AD8E-903F95AB4658}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{07DC7FDC-2D3A-406D-A158-E0C08E70CE90}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{07DC7FDC-2D3A-406D-A158-E0C08E70CE90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>AI Agents for Writing and Content Creation</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Freemium / Paid</t>
   </si>
   <si>
-    <t>OpenAI ChatGPT</t>
-  </si>
-  <si>
     <t>Jasper AI</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Paid</t>
   </si>
   <si>
-    <t>Jasper</t>
-  </si>
-  <si>
     <t>Copy.ai</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>AI writing tool with SEO optimization</t>
   </si>
   <si>
-    <t>INK</t>
-  </si>
-  <si>
     <t>Hypotenuse AI</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>Paid / Enterprise</t>
   </si>
   <si>
-    <t>Writer</t>
-  </si>
-  <si>
     <t>Wordtune</t>
   </si>
   <si>
@@ -136,6 +124,33 @@
   </si>
   <si>
     <t>https://quillbot.com/</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/</t>
+  </si>
+  <si>
+    <t>https://www.jasper.ai/</t>
+  </si>
+  <si>
+    <t>https://www.copy.ai/</t>
+  </si>
+  <si>
+    <t>https://writesonic.com/#</t>
+  </si>
+  <si>
+    <t>https://rytr.me/</t>
+  </si>
+  <si>
+    <t>https://www.hypotenuse.ai/</t>
+  </si>
+  <si>
+    <t>https://www.anyword.com/</t>
+  </si>
+  <si>
+    <t>https://writer.com/</t>
+  </si>
+  <si>
+    <t>https://www.wordtune.com/</t>
   </si>
 </sst>
 </file>
@@ -218,9 +233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,7 +273,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -364,7 +379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990CCFF-17E2-4D69-BB14-81FB46923A5D}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -558,176 +573,177 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://chat.openai.com/" xr:uid="{A961DD25-D670-4D66-A200-FB68FC889F85}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://www.jasper.ai/" xr:uid="{E5849EA1-EFE3-4F11-A1D1-E8F29DD099B0}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://www.copy.ai/" xr:uid="{E231F33A-BF3F-4592-A56F-E9D67AD83903}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://writesonic.com/" xr:uid="{AB1CDA3C-161D-4FA5-AA23-A254AEEFCEC8}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://www.sudowrite.com/" xr:uid="{F845795D-664D-4EFD-9C86-1470F9C48B56}"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://rytr.me/" xr:uid="{8B1AE91E-B542-4CA7-A92D-08F450A00086}"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://inkforall.com/" xr:uid="{288B8A63-36BE-4F0E-A565-D134BEE209AB}"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://www.hypotenuse.ai/" xr:uid="{E8279BFD-9B96-4FF4-AE07-44D463E7DED8}"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://anyword.com/" xr:uid="{C70B0DA0-C3E1-41C4-BF8F-3A7F341FB997}"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://writer.com/" xr:uid="{7301C261-F0FC-4B2F-92ED-23839A915677}"/>
-    <hyperlink ref="D13" r:id="rId11" display="https://www.wordtune.com/" xr:uid="{53D4D854-2D1A-45CC-A326-8D7D75033703}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{A961DD25-D670-4D66-A200-FB68FC889F85}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{E5849EA1-EFE3-4F11-A1D1-E8F29DD099B0}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{E231F33A-BF3F-4592-A56F-E9D67AD83903}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{AB1CDA3C-161D-4FA5-AA23-A254AEEFCEC8}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{F845795D-664D-4EFD-9C86-1470F9C48B56}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{8B1AE91E-B542-4CA7-A92D-08F450A00086}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{288B8A63-36BE-4F0E-A565-D134BEE209AB}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{E8279BFD-9B96-4FF4-AE07-44D463E7DED8}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{C70B0DA0-C3E1-41C4-BF8F-3A7F341FB997}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{7301C261-F0FC-4B2F-92ED-23839A915677}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{53D4D854-2D1A-45CC-A326-8D7D75033703}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{5382421E-9BF8-496C-A822-83A5D01628CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
